--- a/アカウントログインテストケース.xlsx
+++ b/アカウントログインテストケース.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29303"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64DE393F-58E6-4091-85E0-8BE1F6E6EC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9926D04A-4CA7-450F-A65E-4710CA57A954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
   <si>
     <t>No</t>
   </si>
@@ -67,6 +67,19 @@
   </si>
   <si>
     <t>メールアドレス・パスワード入力欄とログインボタンが表示される</t>
+  </si>
+  <si>
+    <t>〇</t>
+  </si>
+  <si>
+    <t>杉村</t>
+  </si>
+  <si>
+    <t>ー</t>
+  </si>
+  <si>
+    <t>Windows 11／
+Chrome</t>
   </si>
   <si>
     <t>入力チェック（空欄）</t>
@@ -102,7 +115,7 @@
 ３．ログインボタンを押す</t>
   </si>
   <si>
-    <t>セッションにユーザー情報が格納される</t>
+    <t>セッションにユーザー情報が格納され、ログインができる</t>
   </si>
   <si>
     <t>認証失敗</t>
@@ -182,7 +195,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -323,11 +336,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -350,9 +378,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -376,6 +401,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -711,10 +754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="I9" sqref="A1:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -765,150 +808,252 @@
       <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="8"/>
+      <c r="E2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="7">
+        <v>45916</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" spans="1:9" ht="210" customHeight="1">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="F3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="G3" s="7">
+        <v>45916</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="8"/>
+      <c r="I3" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="210" customHeight="1">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="7">
+        <v>45916</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:9" ht="210" customHeight="1">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="7">
+        <v>45916</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="210" customHeight="1">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="8"/>
+        <v>26</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="7">
+        <v>45916</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="210" customHeight="1">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="7">
+        <v>45916</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="8"/>
+      <c r="I7" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="210" customHeight="1">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>30</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="8"/>
+        <v>31</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="7">
+        <v>45916</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="210" customHeight="1">
-      <c r="A9" s="4">
+      <c r="A9" s="18">
         <v>8</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="15"/>
+      <c r="B9" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="13">
+        <v>45916</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="210" customHeight="1">
+      <c r="A10" s="19"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+    </row>
+    <row r="11" spans="1:9" ht="210" customHeight="1">
+      <c r="A11" s="19"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/アカウントログインテストケース.xlsx
+++ b/アカウントログインテストケース.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29303"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29311"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9926D04A-4CA7-450F-A65E-4710CA57A954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{67F031D9-FDCE-4E92-B51F-1FD1072F4D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="単体テスト" sheetId="1" r:id="rId1"/>
+    <sheet name="結合テスト" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="59">
   <si>
     <t>No</t>
   </si>
@@ -146,6 +147,93 @@
   </si>
   <si>
     <t>ナビバーに「アカウント登録」「アカウント一覧」が表示される</t>
+  </si>
+  <si>
+    <t>ログイン後トップ画面の
+表示</t>
+  </si>
+  <si>
+    <t>１．登録されているメールアドレスとパスワードを正しく入力
+２．ログインボタンを押下</t>
+  </si>
+  <si>
+    <t>index.phpに遷移し、トップ画面が表示される</t>
+  </si>
+  <si>
+    <t>ログイン後のアカウント登録の動作</t>
+  </si>
+  <si>
+    <t>１．管理者でログイン
+２．ナビバーの「アカウント登録」をクリック
+３．各項目を正しく入力してアカウントの登録を行う</t>
+  </si>
+  <si>
+    <t>regist.php に遷移し、アカウントが登録される</t>
+  </si>
+  <si>
+    <t>ログイン後のナビ表示とリンク動作</t>
+  </si>
+  <si>
+    <t xml:space="preserve">１．管理者でログイン
+２．ナビバーの「アカウント一覧」をクリック
+</t>
+  </si>
+  <si>
+    <t>list.php に遷移し、一覧が表示される</t>
+  </si>
+  <si>
+    <t>ログイン後の更新操作</t>
+  </si>
+  <si>
+    <t xml:space="preserve">１．管理者でログイン
+２．list.php で
+「更新」ボタンを押す
+</t>
+  </si>
+  <si>
+    <t>update.php に遷移し、対象IDの情報が表示される</t>
+  </si>
+  <si>
+    <t>ログイン後の削除操作</t>
+  </si>
+  <si>
+    <t xml:space="preserve">１．管理者でログイン
+２．list.php で「削除」ボタンを押す
+</t>
+  </si>
+  <si>
+    <t>delete.php に遷移し、対象IDが削除される</t>
+  </si>
+  <si>
+    <t>一般ユーザーによるlist.phpアクセス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">１．list.php に直接アクセス
+</t>
+  </si>
+  <si>
+    <t>「権限がないため操作できません」と赤字で表示される</t>
+  </si>
+  <si>
+    <t>一般ユーザーによるregist.phpアクセス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1．regist.php に直接アクセス
+</t>
+  </si>
+  <si>
+    <t>一般ユーザーによるdelete.phpアクセス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1．delete.php に直接アクセス
+</t>
+  </si>
+  <si>
+    <t>一般ユーザーによるupdate.phpアクセス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1．update.php に直接アクセス
+</t>
   </si>
 </sst>
 </file>
@@ -756,8 +844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="A1:I9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1058,4 +1146,248 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8E08107-1B66-4D42-AA25-6A2F712FD921}">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="14.75" customWidth="1"/>
+    <col min="2" max="2" width="25.5" customWidth="1"/>
+    <col min="3" max="3" width="27.75" customWidth="1"/>
+    <col min="4" max="4" width="24.125" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
+    <col min="6" max="6" width="12.75" customWidth="1"/>
+    <col min="7" max="7" width="13.375" customWidth="1"/>
+    <col min="8" max="8" width="16.875" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="64.5" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="149.25" customHeight="1">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="149.25" customHeight="1">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="149.25" customHeight="1">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="149.25" customHeight="1">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="149.25" customHeight="1">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="149.25" customHeight="1">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="149.25" customHeight="1">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="149.25" customHeight="1">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="149.25" customHeight="1">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/アカウントログインテストケース.xlsx
+++ b/アカウントログインテストケース.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29318"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67F031D9-FDCE-4E92-B51F-1FD1072F4D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{43681902-1D77-46A9-9CF0-FF9274D37629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="単体テスト" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="60">
   <si>
     <t>No</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t>regist.php に遷移し、アカウントが登録される</t>
+  </si>
+  <si>
+    <t>×</t>
   </si>
   <si>
     <t>ログイン後のナビ表示とリンク動作</t>
@@ -844,8 +847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I9"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1153,7 +1156,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="H2" sqref="H2:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1211,9 +1214,15 @@
       <c r="D2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
+      <c r="E2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="7">
+        <v>45919</v>
+      </c>
       <c r="H2" s="5"/>
       <c r="I2" s="8" t="s">
         <v>15</v>
@@ -1232,9 +1241,15 @@
       <c r="D3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
+      <c r="E3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="7">
+        <v>45919</v>
+      </c>
       <c r="H3" s="5"/>
       <c r="I3" s="8" t="s">
         <v>15</v>
@@ -1245,17 +1260,23 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7"/>
+      <c r="F4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="7">
+        <v>45919</v>
+      </c>
       <c r="H4" s="5"/>
       <c r="I4" s="8" t="s">
         <v>15</v>
@@ -1266,17 +1287,23 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7"/>
+        <v>47</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="7">
+        <v>45919</v>
+      </c>
       <c r="H5" s="5"/>
       <c r="I5" s="8" t="s">
         <v>15</v>
@@ -1287,17 +1314,23 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7"/>
+        <v>50</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="7">
+        <v>45919</v>
+      </c>
       <c r="H6" s="5"/>
       <c r="I6" s="8" t="s">
         <v>15</v>
@@ -1308,17 +1341,23 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="7"/>
+        <v>53</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="7">
+        <v>45919</v>
+      </c>
       <c r="H7" s="5"/>
       <c r="I7" s="8" t="s">
         <v>15</v>
@@ -1329,17 +1368,23 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
+      <c r="E8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="7">
+        <v>45919</v>
+      </c>
       <c r="H8" s="5"/>
       <c r="I8" s="8" t="s">
         <v>15</v>
@@ -1350,17 +1395,23 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="7"/>
+        <v>53</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="7">
+        <v>45919</v>
+      </c>
       <c r="H9" s="5"/>
       <c r="I9" s="8" t="s">
         <v>15</v>
@@ -1371,17 +1422,23 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="13"/>
+        <v>53</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="7">
+        <v>45919</v>
+      </c>
       <c r="H10" s="10"/>
       <c r="I10" s="14" t="s">
         <v>15</v>

--- a/アカウントログインテストケース.xlsx
+++ b/アカウントログインテストケース.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29318"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43681902-1D77-46A9-9CF0-FF9274D37629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3631B21B-7EFF-409E-AE13-8942C5F36B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="61">
   <si>
     <t>No</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>×</t>
+  </si>
+  <si>
+    <t>”管理者”から”１”に修正</t>
   </si>
   <si>
     <t>ログイン後のナビ表示とリンク動作</t>
@@ -1155,8 +1158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8E08107-1B66-4D42-AA25-6A2F712FD921}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H10"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1223,7 +1226,9 @@
       <c r="G2" s="7">
         <v>45919</v>
       </c>
-      <c r="H2" s="5"/>
+      <c r="H2" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I2" s="8" t="s">
         <v>15</v>
       </c>
@@ -1250,7 +1255,9 @@
       <c r="G3" s="7">
         <v>45919</v>
       </c>
-      <c r="H3" s="5"/>
+      <c r="H3" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="I3" s="8" t="s">
         <v>15</v>
       </c>
@@ -1260,13 +1267,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>41</v>
@@ -1277,7 +1284,9 @@
       <c r="G4" s="7">
         <v>45919</v>
       </c>
-      <c r="H4" s="5"/>
+      <c r="H4" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="I4" s="8" t="s">
         <v>15</v>
       </c>
@@ -1287,13 +1296,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>41</v>
@@ -1304,7 +1313,9 @@
       <c r="G5" s="7">
         <v>45919</v>
       </c>
-      <c r="H5" s="5"/>
+      <c r="H5" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="I5" s="8" t="s">
         <v>15</v>
       </c>
@@ -1314,13 +1325,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>41</v>
@@ -1331,7 +1342,9 @@
       <c r="G6" s="7">
         <v>45919</v>
       </c>
-      <c r="H6" s="5"/>
+      <c r="H6" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="I6" s="8" t="s">
         <v>15</v>
       </c>
@@ -1341,13 +1354,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>12</v>
@@ -1358,7 +1371,9 @@
       <c r="G7" s="7">
         <v>45919</v>
       </c>
-      <c r="H7" s="5"/>
+      <c r="H7" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I7" s="8" t="s">
         <v>15</v>
       </c>
@@ -1368,13 +1383,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>12</v>
@@ -1385,7 +1400,9 @@
       <c r="G8" s="7">
         <v>45919</v>
       </c>
-      <c r="H8" s="5"/>
+      <c r="H8" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I8" s="8" t="s">
         <v>15</v>
       </c>
@@ -1395,13 +1412,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>12</v>
@@ -1412,7 +1429,9 @@
       <c r="G9" s="7">
         <v>45919</v>
       </c>
-      <c r="H9" s="5"/>
+      <c r="H9" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I9" s="8" t="s">
         <v>15</v>
       </c>
@@ -1422,13 +1441,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>12</v>
@@ -1439,7 +1458,9 @@
       <c r="G10" s="7">
         <v>45919</v>
       </c>
-      <c r="H10" s="10"/>
+      <c r="H10" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I10" s="14" t="s">
         <v>15</v>
       </c>
